--- a/Report_Face_Detection_JP.xlsx
+++ b/Report_Face_Detection_JP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0F296A-80F1-400C-9474-384214BC998B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C5A7C3-F62E-43FF-B20C-7BA4D0372E0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <x:si>
     <x:t>1 - 顔をスキャンして、写真をフォルダに、DBに情報を保存する</x:t>
   </x:si>
@@ -208,13 +208,37 @@
   </x:si>
   <x:si>
     <x:t>* 実行提案</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3- 新しい顔を識別する毎回は最初から勉強する必要である。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4- 現在フレーム内で動いているものを発見したら、画像を入れても人だと認識している。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 新しい顔を識別する毎回は最初から勉強する必要である。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>・map networkファイルを分けるように研究している。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 現在フレーム内で動いている人を発見したら、画像を入れても人だと認識している。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>・フレーム内で動いている人を発見した後に顔識別を実行する処理分のソースコードを再確認している。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 傾いた顔と俯いた顔などを識別できていない。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>・現在はスキップし、正面の顔を識別する時の精度と対応速度を向上するように集中する。</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +252,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -256,12 +288,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,201 +575,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D90"/>
+  <dimension ref="A2:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="13.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C17" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C18" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C19" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C20" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C21" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C24" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C27" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>43795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="B34" s="4" t="s">
-        <v>2</v>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35"/>
-      <c r="B35"/>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C35"/>
       <c r="D35"/>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36"/>
+      <c r="A36"/>
+      <c r="B36" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C36"/>
       <c r="D36"/>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37"/>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
+      <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39"/>
-      <c r="B39"/>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
       <c r="C39"/>
       <c r="D39"/>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40"/>
+      <c r="A40"/>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
       <c r="C40"/>
       <c r="D40"/>
     </row>
@@ -747,334 +776,418 @@
       <c r="D41"/>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
+      <c r="A42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
-      <c r="C43" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="C43"/>
       <c r="D43"/>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44"/>
-      <c r="B44"/>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
       <c r="C44"/>
-      <c r="D44" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="D44"/>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45"/>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
-      <c r="D46" s="4" t="s">
-        <v>26</v>
+      <c r="D46" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" s="4" t="s">
-        <v>27</v>
+      <c r="D47" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" s="4" t="s">
-        <v>28</v>
+      <c r="D48" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49" s="4" t="s">
-        <v>29</v>
+      <c r="D49" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
-      <c r="C51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="4"/>
+      <c r="C51"/>
+      <c r="D51" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
-      <c r="C52" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="4"/>
+      <c r="C52"/>
+      <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="C53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4" t="s">
-        <v>34</v>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58"/>
-      <c r="B58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58"/>
-      <c r="D58"/>
+      <c r="B58"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
-      <c r="C59" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60" t="s">
-        <v>37</v>
-      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60"/>
       <c r="D60"/>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
-      <c r="C61" t="s">
-        <v>38</v>
+      <c r="C61" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D61"/>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D62"/>
-    </row>
-    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="D64"/>
+    </row>
+    <row r="66" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B66"/>
-      <c r="C66"/>
-    </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67"/>
-      <c r="B67" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68"/>
-      <c r="B68" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="B68"/>
       <c r="C68"/>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A69"/>
-      <c r="B69" s="4" t="s">
-        <v>43</v>
+      <c r="B69" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C69"/>
     </row>
     <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A70"/>
-      <c r="B70" s="4" t="s">
-        <v>44</v>
+      <c r="B70" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C70"/>
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A71"/>
-      <c r="B71" s="4" t="s">
-        <v>45</v>
+      <c r="B71" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C71"/>
     </row>
     <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A72"/>
-      <c r="B72"/>
+      <c r="B72" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C72"/>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73"/>
+      <c r="A73"/>
+      <c r="B73" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C73"/>
     </row>
     <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A74"/>
-      <c r="B74" t="s">
-        <v>47</v>
-      </c>
+      <c r="B74"/>
       <c r="C74"/>
     </row>
     <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="B75" t="s">
-        <v>48</v>
-      </c>
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75"/>
       <c r="C75"/>
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A76"/>
-      <c r="B76"/>
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
       <c r="C76"/>
     </row>
     <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77"/>
+      <c r="A77"/>
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
       <c r="C77"/>
     </row>
     <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A78"/>
-      <c r="B78"/>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
       <c r="C78"/>
     </row>
     <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C79"/>
     </row>
     <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
-      <c r="C80" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81"/>
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B81"/>
-      <c r="C81" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
-      <c r="C82" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
-      <c r="C84" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C84" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
-      <c r="C85" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
-      <c r="C86"/>
-    </row>
-    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A87"/>
-      <c r="B87" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87"/>
-    </row>
-    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B87"/>
+      <c r="C87" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
-      <c r="C88" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
-      <c r="C89" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C89" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
-      <c r="C90" s="4" t="s">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="C91" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="C92"/>
+      <c r="D92" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="C93"/>
+      <c r="D93" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="C94"/>
+      <c r="D94" s="3" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+    </row>
+    <row r="97" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B97"/>
+      <c r="C97" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97"/>
+    </row>
+    <row r="98" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B98"/>
+      <c r="C98" s="3"/>
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B100"/>
+      <c r="C100" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+    </row>
+    <row r="102" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102"/>
+    </row>
+    <row r="103" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B103"/>
+      <c r="C103" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
